--- a/Summary-Test and Performance.xlsx
+++ b/Summary-Test and Performance.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aneesh/Documents/Development/Java/Broker Order Book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD864F8-8839-2E4E-B5DF-4DD3801FE12C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3431F1B-DE50-0241-8746-12BA2672A01D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="1640" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{28B2413F-A3B8-4642-A0D1-15828D4CE950}"/>
+    <workbookView xWindow="6440" yWindow="1940" windowWidth="28040" windowHeight="14180" xr2:uid="{28B2413F-A3B8-4642-A0D1-15828D4CE950}"/>
   </bookViews>
   <sheets>
-    <sheet name="Unit Tests" sheetId="1" r:id="rId1"/>
-    <sheet name="Time Space Complexity" sheetId="2" r:id="rId2"/>
+    <sheet name="Time Space Complexity" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>Class</t>
   </si>
@@ -42,50 +41,80 @@
     <t>Function</t>
   </si>
   <si>
-    <t>Given</t>
-  </si>
-  <si>
-    <t>When</t>
-  </si>
-  <si>
-    <t>Expected</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Time Complexity</t>
-  </si>
-  <si>
-    <t>Space Complexity</t>
-  </si>
-  <si>
     <t>OrderBookManagerImpl</t>
   </si>
   <si>
-    <t>AskBook</t>
-  </si>
-  <si>
-    <t>BidBook</t>
-  </si>
-  <si>
-    <t>InstrumentProperty</t>
-  </si>
-  <si>
-    <t>LevelProperty</t>
-  </si>
-  <si>
-    <t>OrderLinkedList</t>
-  </si>
-  <si>
-    <t>OrderNode</t>
+    <t>addOrder</t>
+  </si>
+  <si>
+    <t>modifyOrder</t>
+  </si>
+  <si>
+    <t>deleteOrder</t>
+  </si>
+  <si>
+    <t>getBestPrice</t>
+  </si>
+  <si>
+    <t>getOrderNumAtLevel</t>
+  </si>
+  <si>
+    <t>getTotalQuantityAtLevel</t>
+  </si>
+  <si>
+    <t>getTotalVolumeAtLevel</t>
+  </si>
+  <si>
+    <t>getOrdersAtLevel</t>
+  </si>
+  <si>
+    <t>o(1)</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>number of orders in total</t>
+  </si>
+  <si>
+    <t>number of orders at level</t>
+  </si>
+  <si>
+    <t>o(a)</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>number of instruments and sides combinations</t>
+  </si>
+  <si>
+    <t>number of levels across all instruments and sides</t>
+  </si>
+  <si>
+    <t>j</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,13 +130,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
@@ -116,12 +138,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -136,18 +170,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="5">
     <dxf>
       <font>
         <strike val="0"/>
@@ -161,6 +198,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -175,6 +213,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -219,106 +258,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -333,28 +272,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C919C59C-E12B-1C46-BA74-96C9F0AE47DA}" name="Table1" displayName="Table1" ref="B2:G3" totalsRowShown="0" headerRowDxfId="5">
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{79B03B6A-AFF6-C74F-A0F4-68A8E055DB4A}" name="Class" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{D495775A-DFFF-DE41-86F4-AF02BA1EE5CF}" name="Function" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{585B24A5-801B-064E-BE77-8597D6E2CCB0}" name="Given" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{6CFBB765-007C-454A-BF90-1153D4B7D0E2}" name="When" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{B0B6D43A-6BED-594A-A912-0EF99153994C}" name="Expected" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{053C0173-1F5F-FF45-8131-3467A3C01336}" name="Completed" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F3FCAEAB-2E58-884E-BABC-DA181EB95960}" name="Table13" displayName="Table13" ref="B8:E16" totalsRowShown="0" headerRowDxfId="4">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{C6372D08-D873-0443-BCDF-503C4BBC4D0B}" name="Class" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{0BC9E158-7EFE-8F42-9E9C-CED28A19F4DE}" name="Function" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{F389A931-3D5D-3B42-B3F1-50F2A053E76E}" name="Time" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{36FA4DAE-EC3A-714D-A83A-BC93026D8252}" name="Space" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F3FCAEAB-2E58-884E-BABC-DA181EB95960}" name="Table13" displayName="Table13" ref="B2:E11" totalsRowShown="0" headerRowDxfId="4">
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C6372D08-D873-0443-BCDF-503C4BBC4D0B}" name="Class" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{0BC9E158-7EFE-8F42-9E9C-CED28A19F4DE}" name="Function" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{F389A931-3D5D-3B42-B3F1-50F2A053E76E}" name="Time Complexity" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{36FA4DAE-EC3A-714D-A83A-BC93026D8252}" name="Space Complexity" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2CB95C58-FA28-704A-8759-E63904823215}" name="Table3" displayName="Table3" ref="B2:C6" totalsRowShown="0">
+  <autoFilter ref="B2:C6" xr:uid="{EDE458DD-31A6-5942-86D8-E180E8C5071A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{8BD6BCD3-8889-934F-8221-F2E60FA7D8F7}" name="Key"/>
+    <tableColumn id="2" xr3:uid="{31EB33C8-FDD3-F542-A7FC-12F6664E8CC9}" name="Value"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -654,171 +590,192 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A5A9EF-F427-0846-8D1E-B78A3206DF7D}">
-  <dimension ref="B2:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E94489-E6AB-D24E-A131-F44EAAB7C548}">
+  <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="6" width="39.83203125" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="3" max="3" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="D10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="3Symbols" showValue="0">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E94489-E6AB-D24E-A131-F44EAAB7C548}">
-  <dimension ref="B2:E11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B3:B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="5" width="39.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="2:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="2:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="2:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="2:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="D15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="2:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="2:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="2:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="2:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>